--- a/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62D6B06-A7B7-49CC-9BEA-1B32F34B3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6D2760-8785-4E29-823E-2F27FB3B94B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B26B33-828B-49EF-BBC9-2529A5A5E242}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E748B977-A426-497D-BC9E-77A91F9224DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,33 +68,219 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
     <t>4,69%</t>
   </si>
   <si>
@@ -116,30 +302,6 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>33,34%</t>
   </si>
   <si>
@@ -167,33 +329,6 @@
     <t>37,97%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
     <t>61,26%</t>
   </si>
   <si>
@@ -221,139 +356,52 @@
     <t>64,33%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -365,9 +413,6 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
     <t>6,62%</t>
   </si>
   <si>
@@ -380,30 +425,6 @@
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>31,91%</t>
   </si>
   <si>
@@ -429,27 +450,6 @@
   </si>
   <si>
     <t>35,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
   </si>
   <si>
     <t>61,77%</t>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D87E62-8592-4B96-93A9-D72DCCA4A7D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EDBC6C-0E4F-48B3-B09D-5FC4DB2008C7}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1258,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>5570</v>
+        <v>1063</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1273,34 +1273,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>12355</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1063</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7">
-        <v>17925</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,46 +1312,46 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>3103</v>
+        <v>3763</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2934</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3649</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6697</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6752</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1360,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>116789</v>
+        <v>2675</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3792</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>100367</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6468</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="7">
-        <v>255</v>
-      </c>
-      <c r="N12" s="7">
-        <v>217156</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1411,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>10237</v>
+        <v>16553</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12667</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5683</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>34</v>
+      </c>
+      <c r="N13" s="7">
+        <v>29220</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="7">
-        <v>21</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15919</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1462,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>214614</v>
+        <v>43542</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7">
+        <v>43060</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>176762</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>112</v>
+      </c>
+      <c r="N14" s="7">
+        <v>86602</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="7">
-        <v>495</v>
-      </c>
-      <c r="N14" s="7">
-        <v>391376</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1513,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>350313</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>298817</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>802</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>649130</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>2675</v>
+        <v>10237</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3792</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15919</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6468</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,46 +1620,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3763</v>
+        <v>3103</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3649</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2934</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6752</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6697</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1668,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>16553</v>
+        <v>5570</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12355</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12667</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>22</v>
+      </c>
+      <c r="N18" s="7">
+        <v>17925</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="7">
-        <v>34</v>
-      </c>
-      <c r="N18" s="7">
-        <v>29220</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,46 +1719,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="D19" s="7">
-        <v>1063</v>
+        <v>116789</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>100367</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>255</v>
+      </c>
+      <c r="N19" s="7">
+        <v>217156</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1063</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>96</v>
@@ -1770,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>43542</v>
+        <v>214614</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>97</v>
@@ -1785,10 +1785,10 @@
         <v>99</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="I20" s="7">
-        <v>43060</v>
+        <v>176762</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>100</v>
@@ -1800,10 +1800,10 @@
         <v>102</v>
       </c>
       <c r="M20" s="7">
-        <v>112</v>
+        <v>495</v>
       </c>
       <c r="N20" s="7">
-        <v>86602</v>
+        <v>391376</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>103</v>
@@ -1821,49 +1821,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>350313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>298817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>649130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,49 +1874,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>8245</v>
+        <v>11300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="7">
         <v>22</v>
       </c>
-      <c r="I22" s="7">
-        <v>16148</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="N22" s="7">
+        <v>16983</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M22" s="7">
-        <v>30</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24393</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1931,13 @@
         <v>6866</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -1946,13 +1946,13 @@
         <v>6583</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -1961,13 +1961,13 @@
         <v>13449</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1976,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>133342</v>
+        <v>8245</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16148</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="7">
-        <v>139</v>
-      </c>
-      <c r="I24" s="7">
-        <v>113035</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>30</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24393</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="7">
-        <v>289</v>
-      </c>
-      <c r="N24" s="7">
-        <v>246377</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,28 +2027,28 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>11300</v>
+        <v>133342</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>139</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113035</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5683</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>133</v>
@@ -2057,10 +2057,10 @@
         <v>134</v>
       </c>
       <c r="M25" s="7">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="N25" s="7">
-        <v>16983</v>
+        <v>246377</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>135</v>
@@ -2135,13 +2135,13 @@
         <v>417910</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2150,13 +2150,13 @@
         <v>361271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -2165,13 +2165,13 @@
         <v>779181</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6D2760-8785-4E29-823E-2F27FB3B94B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4575A31-0E92-4F55-BFF6-69BBDC444C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E748B977-A426-497D-BC9E-77A91F9224DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D26F6C17-D015-41CE-8271-2839056E72C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="153">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,418 +65,436 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +505,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,39 +601,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -667,7 +685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -778,13 +796,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -793,6 +804,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -857,19 +875,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EDBC6C-0E4F-48B3-B09D-5FC4DB2008C7}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A9192C-E347-410D-BB6C-9B7325532DC6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,49 +1296,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,49 +1341,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1386,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1431,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7">
-        <v>16553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1476,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
-      </c>
-      <c r="I14" s="7">
-        <v>43060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>112</v>
-      </c>
-      <c r="N14" s="7">
-        <v>86602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1521,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7">
-        <v>10237</v>
+        <v>104205</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>5683</v>
+        <v>77465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>15919</v>
+        <v>181670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1619,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>3103</v>
+        <v>42912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>3649</v>
+        <v>38937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="N17" s="7">
-        <v>6752</v>
+        <v>81848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,46 +1673,46 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>5570</v>
+        <v>4318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>12355</v>
+        <v>10624</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>17925</v>
+        <v>14942</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1721,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>116789</v>
+        <v>4678</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>100367</v>
+        <v>4743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>217156</v>
+        <v>9420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +1772,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>214614</v>
+        <v>6701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>176762</v>
+        <v>2038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>391376</v>
+        <v>8739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,102 +1823,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>408</v>
+        <v>194</v>
       </c>
       <c r="D21" s="7">
-        <v>350313</v>
+        <v>162814</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>298817</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>802</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>649130</v>
+        <v>296620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="D22" s="7">
-        <v>11300</v>
+        <v>153951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="I22" s="7">
-        <v>5683</v>
+        <v>142357</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="N22" s="7">
-        <v>16983</v>
+        <v>296309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +1927,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7">
-        <v>6866</v>
+        <v>90430</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7">
-        <v>6583</v>
+        <v>74098</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="N23" s="7">
-        <v>13449</v>
+        <v>164529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1978,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3927</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
-        <v>8245</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="7">
-        <v>22</v>
-      </c>
       <c r="I24" s="7">
-        <v>16148</v>
+        <v>5524</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>24393</v>
+        <v>9451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2029,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>133342</v>
+        <v>2189</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>113035</v>
+        <v>1840</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>246377</v>
+        <v>4029</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,49 +2080,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>258157</v>
+        <v>4599</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
-        <v>299</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>219823</v>
+        <v>3645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
-        <v>607</v>
+        <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>477979</v>
+        <v>8244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,55 +2131,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>294</v>
+      </c>
+      <c r="D27" s="7">
+        <v>255096</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299</v>
+      </c>
+      <c r="I27" s="7">
+        <v>227465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482561</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>308</v>
+      </c>
+      <c r="D28" s="7">
+        <v>258157</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>299</v>
+      </c>
+      <c r="I28" s="7">
+        <v>219823</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>607</v>
+      </c>
+      <c r="N28" s="7">
+        <v>477978</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>150</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133342</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>139</v>
+      </c>
+      <c r="I29" s="7">
+        <v>113035</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>289</v>
+      </c>
+      <c r="N29" s="7">
+        <v>246376</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8245</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16148</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="7">
+        <v>30</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24393</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6866</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6583</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" s="7">
+        <v>16</v>
+      </c>
+      <c r="N31" s="7">
+        <v>13449</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7">
+        <v>11300</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="7">
+        <v>22</v>
+      </c>
+      <c r="N32" s="7">
+        <v>16983</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>488</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>417910</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>361271</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>964</v>
       </c>
-      <c r="N27" s="7">
-        <v>779181</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>60</v>
+      <c r="N33" s="7">
+        <v>779180</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4575A31-0E92-4F55-BFF6-69BBDC444C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA47C723-254B-4AB5-A5ED-F8F1413F87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D26F6C17-D015-41CE-8271-2839056E72C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12A73E9C-AFC7-472C-9FAB-F593C92AD77B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="154">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -95,118 +95,118 @@
     <t>64,0%</t>
   </si>
   <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -215,16 +215,16 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -236,262 +236,265 @@
     <t>60,35%</t>
   </si>
   <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>32,58%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>7,23%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>4,32%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -906,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A9192C-E347-410D-BB6C-9B7325532DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E7048D-D5BA-4EC5-B59A-998FA7B5E838}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,13 +1987,13 @@
         <v>3927</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -1999,13 +2002,13 @@
         <v>5524</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2014,10 +2017,10 @@
         <v>9451</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>90</v>
@@ -2119,10 +2122,10 @@
         <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2193,13 @@
         <v>258157</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>299</v>
@@ -2205,28 +2208,28 @@
         <v>219823</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>607</v>
       </c>
       <c r="N28" s="7">
-        <v>477978</v>
+        <v>477979</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2244,13 @@
         <v>133342</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>139</v>
@@ -2256,28 +2259,28 @@
         <v>113035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>289</v>
       </c>
       <c r="N29" s="7">
-        <v>246376</v>
+        <v>246377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2295,13 @@
         <v>8245</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -2307,13 +2310,13 @@
         <v>16148</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -2322,13 +2325,13 @@
         <v>24393</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2346,13 @@
         <v>6866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2358,13 +2361,13 @@
         <v>6583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -2376,10 +2379,10 @@
         <v>141</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2397,13 @@
         <v>11300</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2409,13 +2412,13 @@
         <v>5683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -2424,13 +2427,13 @@
         <v>16983</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2475,7 @@
         <v>964</v>
       </c>
       <c r="N33" s="7">
-        <v>779180</v>
+        <v>779181</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>63</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA47C723-254B-4AB5-A5ED-F8F1413F87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF0AFB1-D10C-424F-9CB0-533114571E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12A73E9C-AFC7-472C-9FAB-F593C92AD77B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5CBB7AB6-3A61-4759-A33F-7B576335933D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="154">
-  <si>
-    <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
+  <si>
+    <t>Menores según frecuencia de tener suficiente tiempo para él/ella en 2023 (Tasa respuesta: 50,16%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Siempre</t>
+    <t>Muchísimo</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,409 +92,376 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -909,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E7048D-D5BA-4EC5-B59A-998FA7B5E838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CDAA0A-31C3-4EF8-A18C-B12646CB6900}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1571,10 +1538,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>104205</v>
+        <v>84582</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1586,10 +1553,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7">
-        <v>77465</v>
+        <v>87761</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1601,10 +1568,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="N16" s="7">
-        <v>181670</v>
+        <v>172344</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1622,10 +1589,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>42912</v>
+        <v>38845</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1637,10 +1604,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>38937</v>
+        <v>64987</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1652,10 +1619,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>81848</v>
+        <v>103832</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1673,10 +1640,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>4318</v>
+        <v>5466</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1688,10 +1655,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>10624</v>
+        <v>14671</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1703,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>14942</v>
+        <v>20137</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1724,10 +1691,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>4678</v>
+        <v>2394</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -1739,10 +1706,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>4743</v>
+        <v>1766</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -1754,10 +1721,10 @@
         <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>9420</v>
+        <v>4160</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>51</v>
@@ -1775,10 +1742,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>6701</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -1790,34 +1757,34 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>2038</v>
+        <v>1127</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1127</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="7">
-        <v>11</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8739</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,102 +1793,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>194</v>
       </c>
-      <c r="D21" s="7">
-        <v>162814</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>170313</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>296620</v>
+        <v>301600</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D22" s="7">
-        <v>153951</v>
+        <v>124099</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>148</v>
+      </c>
+      <c r="I22" s="7">
+        <v>127579</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7">
-        <v>191</v>
-      </c>
-      <c r="I22" s="7">
-        <v>142357</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>319</v>
+      </c>
+      <c r="N22" s="7">
+        <v>251678</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="7">
-        <v>372</v>
-      </c>
-      <c r="N22" s="7">
-        <v>296309</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,49 +1897,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>90430</v>
+        <v>68391</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>96</v>
+      </c>
+      <c r="I23" s="7">
+        <v>76816</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="7">
-        <v>92</v>
-      </c>
-      <c r="I23" s="7">
-        <v>74098</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>196</v>
+      </c>
+      <c r="N23" s="7">
+        <v>145207</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="7">
-        <v>193</v>
-      </c>
-      <c r="N23" s="7">
-        <v>164529</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +1948,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>3927</v>
+        <v>43085</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
+        <v>36</v>
+      </c>
+      <c r="I24" s="7">
+        <v>46798</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5524</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>59</v>
+      </c>
+      <c r="N24" s="7">
+        <v>89883</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="M24" s="7">
-        <v>11</v>
-      </c>
-      <c r="N24" s="7">
-        <v>9451</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,49 +1999,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>2189</v>
+        <v>3107</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7633</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>14</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10740</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1840</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4029</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +2050,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>4599</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>9408</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>9408</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3645</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M26" s="7">
-        <v>11</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8244</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,49 +2101,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D27" s="7">
-        <v>255096</v>
+        <v>238682</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I27" s="7">
-        <v>227465</v>
+        <v>268235</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N27" s="7">
-        <v>482561</v>
+        <v>506917</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,49 +2154,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="D28" s="7">
-        <v>258157</v>
+        <v>208682</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>246</v>
+      </c>
+      <c r="I28" s="7">
+        <v>215340</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>527</v>
+      </c>
+      <c r="N28" s="7">
+        <v>424022</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="7">
-        <v>299</v>
-      </c>
-      <c r="I28" s="7">
-        <v>219823</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="7">
-        <v>607</v>
-      </c>
-      <c r="N28" s="7">
-        <v>477979</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,49 +2205,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D29" s="7">
-        <v>133342</v>
+        <v>107236</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>169</v>
+      </c>
+      <c r="I29" s="7">
+        <v>141803</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>325</v>
+      </c>
+      <c r="N29" s="7">
+        <v>249039</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="7">
-        <v>139</v>
-      </c>
-      <c r="I29" s="7">
-        <v>113035</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="7">
-        <v>289</v>
-      </c>
-      <c r="N29" s="7">
-        <v>246377</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,49 +2256,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D30" s="7">
-        <v>8245</v>
+        <v>48551</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>54</v>
+      </c>
+      <c r="I30" s="7">
+        <v>61470</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>85</v>
+      </c>
+      <c r="N30" s="7">
+        <v>110021</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="7">
-        <v>22</v>
-      </c>
-      <c r="I30" s="7">
-        <v>16148</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M30" s="7">
-        <v>30</v>
-      </c>
-      <c r="N30" s="7">
-        <v>24393</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,46 +2310,46 @@
         <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>6866</v>
+        <v>5500</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="7">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9400</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="7">
+        <v>20</v>
+      </c>
+      <c r="N31" s="7">
+        <v>14900</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="7">
-        <v>8</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6583</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" s="7">
-        <v>16</v>
-      </c>
-      <c r="N31" s="7">
-        <v>13449</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,49 +2358,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>5683</v>
+        <v>10535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>16983</v>
+        <v>10535</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,54 +2409,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D33" s="7">
-        <v>417910</v>
+        <v>369969</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="I33" s="7">
-        <v>361271</v>
+        <v>438548</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N33" s="7">
-        <v>779181</v>
+        <v>808517</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
